--- a/data/trans_camb/P32B-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Provincia-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>4.043418761942831</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.5362977876235825</v>
+        <v>-0.5362977876235828</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.932714586594078</v>
+        <v>3.949144010576369</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.166759895098203</v>
+        <v>1.448126901092526</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.592041069777713</v>
+        <v>-2.614392132309867</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.844932624003987</v>
+        <v>-7.097738715265789</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.338508402246132</v>
+        <v>-4.827063353883739</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-8.813219757448143</v>
+        <v>-8.929812154270397</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.394992838139647</v>
+        <v>1.233983881682338</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8007473953905853</v>
+        <v>0.4353735287291204</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.104772003012013</v>
+        <v>-3.484985489641026</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.17768147608098</v>
+        <v>14.50775911810308</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.39171717924014</v>
+        <v>11.29740002363687</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.53362520240802</v>
+        <v>4.505332828755938</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.758038070377507</v>
+        <v>2.758988251422963</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.669517591558281</v>
+        <v>6.524095826512368</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.506810396428119</v>
+        <v>0.5213705189406811</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.654611957637025</v>
+        <v>8.875019608122713</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.80312825191498</v>
+        <v>7.846834155310328</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.057003893283654</v>
+        <v>2.19632104539847</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.495310328133673</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.8275757704823992</v>
+        <v>-0.8275757704823991</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>2.110573667784579</v>
@@ -769,7 +769,7 @@
         <v>1.761692825856125</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2336616661799858</v>
+        <v>-0.2336616661799859</v>
       </c>
     </row>
     <row r="8">
@@ -780,23 +780,23 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.4555716991307837</v>
+        <v>0.4824427222126058</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01135917477867015</v>
+        <v>-0.0574692362694857</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>0.1567796861350802</v>
+        <v>0.164519376393065</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.05801538548313673</v>
+        <v>-0.09498840982625355</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8648205154895314</v>
+        <v>-0.9525210675345128</v>
       </c>
     </row>
     <row r="9">
@@ -806,20 +806,24 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr"/>
-      <c r="D9" s="6" t="inlineStr"/>
+      <c r="C9" s="6" t="n">
+        <v>19.90808491866723</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>16.03896939414249</v>
+      </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>9.507458788928224</v>
+        <v>8.704493845060354</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>9.010318171594415</v>
+        <v>7.496176183104057</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.370589374232681</v>
+        <v>2.704219838044115</v>
       </c>
     </row>
     <row r="10">
@@ -840,7 +844,7 @@
         <v>-1.670874191242342</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.5423816857167908</v>
+        <v>-0.5423816857167909</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0</v>
@@ -858,7 +862,7 @@
         <v>-1.267789257487409</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.5027003058742389</v>
+        <v>-0.5027003058742388</v>
       </c>
     </row>
     <row r="11">
@@ -869,25 +873,25 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.089625355949485</v>
+        <v>-1.266855018555567</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.559719801731112</v>
+        <v>-3.867604036678627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.596862868788166</v>
+        <v>-2.549269110812012</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>-1.062428699216181</v>
+        <v>-1.066233498778155</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.144862606361255</v>
+        <v>-3.173871837741587</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.922422288808691</v>
+        <v>-2.011969841696885</v>
       </c>
     </row>
     <row r="12">
@@ -898,25 +902,25 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.147224969701364</v>
+        <v>4.051662316614163</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.4465893749199518</v>
+        <v>-0.4389512051037343</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.232725897883577</v>
+        <v>3.141727019026885</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>2.820072468175193</v>
+        <v>2.884794866660615</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.3301665328047709</v>
+        <v>-0.3303718997328894</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.034333415434092</v>
+        <v>2.017080278072681</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +937,7 @@
         <v>-1</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3246095298853798</v>
+        <v>-0.3246095298853799</v>
       </c>
       <c r="F13" s="6" t="inlineStr"/>
       <c r="G13" s="6" t="inlineStr"/>
@@ -945,7 +949,7 @@
         <v>-1</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3965172467784784</v>
+        <v>-0.3965172467784783</v>
       </c>
     </row>
     <row r="14">
@@ -956,7 +960,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5994132763331771</v>
+        <v>-0.6671668358571933</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
@@ -964,7 +968,7 @@
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.6411795605899204</v>
+        <v>-0.6212529166422356</v>
       </c>
       <c r="J14" s="6" t="inlineStr"/>
       <c r="K14" s="6" t="inlineStr"/>
@@ -977,7 +981,7 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9.220909256201212</v>
+        <v>6.479675875740742</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
@@ -985,7 +989,7 @@
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>7.424952318366772</v>
+        <v>6.928486833760454</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="inlineStr"/>
@@ -1017,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.920368377827589</v>
+        <v>1.92036837782759</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.3013769512700836</v>
@@ -1026,7 +1030,7 @@
         <v>0.2648154023787334</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.175070353995774</v>
+        <v>4.175070353995773</v>
       </c>
     </row>
     <row r="17">
@@ -1041,14 +1045,14 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.688052416018806</v>
+        <v>2.742395777783069</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.5147533890218969</v>
+        <v>0.5194064670219652</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
@@ -1057,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.45513545487379</v>
+        <v>2.410361488597719</v>
       </c>
     </row>
     <row r="18">
@@ -1069,26 +1073,26 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>2.142783484036057</v>
+        <v>2.093053569746001</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.95001298845682</v>
+        <v>9.203420750807084</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.890558783145547</v>
+        <v>4.211476454739124</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>5.857060587182985</v>
+        <v>5.420912309290307</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.329139283098895</v>
+        <v>1.518903592580932</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.500556312911289</v>
+        <v>1.319849416387766</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.980784082767312</v>
+        <v>7.191589658023158</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1192,7 @@
         <v>-0.5116449196173198</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.6928440376576663</v>
+        <v>-0.6928440376576664</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.8955451227019535</v>
@@ -1206,7 +1210,7 @@
         <v>-0.687701421649705</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.5171060581927373</v>
+        <v>-0.5171060581927374</v>
       </c>
     </row>
     <row r="23">
@@ -1217,31 +1221,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.362364796865421</v>
+        <v>-3.481162727880935</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.813840633367373</v>
+        <v>-3.053595303888256</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.173400098958364</v>
+        <v>-3.1675213239906</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.526072820288962</v>
+        <v>-4.415808638966337</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.540238816776048</v>
+        <v>-5.936684414497274</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.621032576350062</v>
+        <v>-3.564725188420983</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.884474871306487</v>
+        <v>-2.570863894706128</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.377801191290348</v>
+        <v>-2.333082174741872</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.354375777558007</v>
+        <v>-2.363544236989704</v>
       </c>
     </row>
     <row r="24">
@@ -1252,13 +1256,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.549455742535905</v>
+        <v>0.5021505563058766</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.465499241967035</v>
+        <v>1.364431336036818</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.226256273713763</v>
+        <v>0.899962674327663</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
@@ -1267,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.076672247933244</v>
+        <v>1.147041186717364</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.08524384601086389</v>
+        <v>0.1185236567379283</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5358551362950048</v>
+        <v>0.3849336193378717</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6677005082748894</v>
+        <v>0.7471193716143859</v>
       </c>
     </row>
     <row r="25">
@@ -1293,7 +1297,7 @@
         <v>-0.3484212679730403</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4718147075295874</v>
+        <v>-0.4718147075295875</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-1</v>
@@ -1311,7 +1315,7 @@
         <v>-0.5435999029398816</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.4087512315575527</v>
+        <v>-0.4087512315575528</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1334,7 @@
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="inlineStr"/>
       <c r="K26" s="6" t="n">
-        <v>-1</v>
+        <v>-0.970241084338996</v>
       </c>
     </row>
     <row r="27">
@@ -1349,7 +1353,7 @@
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="inlineStr"/>
       <c r="K27" s="6" t="n">
-        <v>2.216080065715249</v>
+        <v>2.234059421673381</v>
       </c>
     </row>
     <row r="28">
@@ -1379,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.32873656001445</v>
+        <v>4.328736560014451</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.227673917614588</v>
@@ -1388,7 +1392,7 @@
         <v>2.208553391841413</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.422694123036375</v>
+        <v>0.4226941230363752</v>
       </c>
     </row>
     <row r="29">
@@ -1399,13 +1403,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2958661681059708</v>
+        <v>-0.2833578158539091</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6648754034860436</v>
+        <v>-0.1178691431403296</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.56598977980638</v>
+        <v>-5.685789385688665</v>
       </c>
       <c r="F29" s="5" t="inlineStr"/>
       <c r="G29" s="5" t="inlineStr"/>
@@ -1413,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1095666541012742</v>
+        <v>-0.1222749625102059</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.0902820969654041</v>
+        <v>0.04267316186635078</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.26542535091019</v>
+        <v>-1.247550515002759</v>
       </c>
     </row>
     <row r="30">
@@ -1430,10 +1434,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.112044860556217</v>
+        <v>7.702443684585804</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.343836723600603</v>
+        <v>8.124799176634214</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>0</v>
@@ -1441,16 +1445,16 @@
       <c r="F30" s="5" t="inlineStr"/>
       <c r="G30" s="5" t="inlineStr"/>
       <c r="H30" s="5" t="n">
-        <v>22.65955634043678</v>
+        <v>20.21144240837146</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.505330102624687</v>
+        <v>5.595144350898916</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.280031097692411</v>
+        <v>6.101384469529789</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.285983585894344</v>
+        <v>4.384895574887635</v>
       </c>
     </row>
     <row r="31">
@@ -1483,7 +1487,7 @@
         <v>3.556938731341695</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.680761037198667</v>
+        <v>0.6807610371986672</v>
       </c>
     </row>
     <row r="32">
@@ -1556,7 +1560,7 @@
         <v>-0.211375273929634</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.3552184655414508</v>
+        <v>0.3552184655414511</v>
       </c>
     </row>
     <row r="35">
@@ -1567,31 +1571,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.594899585757758</v>
+        <v>-3.523511999355645</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.1312849413215</v>
+        <v>-2.067550847228765</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.092977135832737</v>
+        <v>-2.605063106046065</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-7.354629014090936</v>
+        <v>-7.273269939294674</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.367539069817899</v>
+        <v>-6.326538324652365</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-4.542014727330752</v>
+        <v>-4.700895326266825</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.631895770697626</v>
+        <v>-3.750273483727943</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.609378552188452</v>
+        <v>-2.612959991704539</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.944855684596585</v>
+        <v>-2.141259526754425</v>
       </c>
     </row>
     <row r="36">
@@ -1602,31 +1606,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.135420556787185</v>
+        <v>1.138694983450526</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.610860115628537</v>
+        <v>3.669431068719867</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.390533354929003</v>
+        <v>3.019806741873852</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-0.8434541877164636</v>
+        <v>-0.8488505090405015</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.8919703562850202</v>
+        <v>0.9122513481187607</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.411323320674295</v>
+        <v>3.450663600892855</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.1047814222148998</v>
+        <v>0.1440944264194109</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.017861363694102</v>
+        <v>1.886159935634855</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.579558637471262</v>
+        <v>2.764254850126233</v>
       </c>
     </row>
     <row r="37">
@@ -1661,7 +1665,7 @@
         <v>-0.11517716662109</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1935564914095648</v>
+        <v>0.1935564914095649</v>
       </c>
     </row>
     <row r="38">
@@ -1673,18 +1677,16 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
-      <c r="E38" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="inlineStr"/>
       <c r="I38" s="6" t="inlineStr"/>
       <c r="J38" s="6" t="n">
-        <v>-0.8533809980541847</v>
+        <v>-0.8619367194883905</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.7379807524944343</v>
+        <v>-0.7154402202162289</v>
       </c>
     </row>
     <row r="39">
@@ -1702,10 +1704,10 @@
       <c r="H39" s="6" t="inlineStr"/>
       <c r="I39" s="6" t="inlineStr"/>
       <c r="J39" s="6" t="n">
-        <v>3.57009847133417</v>
+        <v>2.57484150075677</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3.849675124736062</v>
+        <v>4.063329526317022</v>
       </c>
     </row>
     <row r="40">
@@ -1755,31 +1757,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.099121843920669</v>
+        <v>2.170105769631388</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.686307393670219</v>
+        <v>1.637796749599232</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.624004133742445</v>
+        <v>1.656245787225455</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.4551756716194224</v>
+        <v>0.4408828353524613</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.125067277790568</v>
+        <v>0.8123994970738864</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.878874661499103</v>
+        <v>1.893332565714797</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.796380181442035</v>
+        <v>1.72834936970595</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.777798922582233</v>
+        <v>1.837411299588541</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.092481982077293</v>
+        <v>2.183997725847004</v>
       </c>
     </row>
     <row r="42">
@@ -1790,31 +1792,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.337369553117365</v>
+        <v>6.502308838591228</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.687677571329967</v>
+        <v>5.692353820744097</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.28000717826345</v>
+        <v>6.391563806820506</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.50370025743676</v>
+        <v>4.208752467985928</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.786737691953015</v>
+        <v>4.780953912726853</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>8.942321895427531</v>
+        <v>9.802541224166768</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.91517782181669</v>
+        <v>4.742502976455222</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.6123812727811</v>
+        <v>4.688886587360389</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.912545045633924</v>
+        <v>5.631667234731749</v>
       </c>
     </row>
     <row r="43">
@@ -1922,7 +1924,7 @@
         <v>0.8927437653304415</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.5696659453495432</v>
+        <v>0.5696659453495434</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-0.7732652238156681</v>
@@ -1940,7 +1942,7 @@
         <v>0.1454601123479488</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.3973010452735923</v>
+        <v>0.3973010452735922</v>
       </c>
     </row>
     <row r="47">
@@ -1951,31 +1953,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.4963930546834318</v>
+        <v>0.5769286490480543</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.03591836425615757</v>
+        <v>0.02165385441299505</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.2933031666371397</v>
+        <v>-0.3175285982231304</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.458729471098233</v>
+        <v>-2.465664942135655</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-3.703605089485431</v>
+        <v>-3.329037704437058</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.779232079008625</v>
+        <v>-1.768899756547217</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.1317378407795205</v>
+        <v>-0.1110182996617654</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.6524139054901631</v>
+        <v>-0.7105003868077828</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.5415032266755146</v>
+        <v>-0.4955058748860631</v>
       </c>
     </row>
     <row r="48">
@@ -1986,31 +1988,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.353277571994199</v>
+        <v>3.497015242044863</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.502027691367682</v>
+        <v>2.437994494583715</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.098402037854868</v>
+        <v>2.035692791051622</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.9404366352817859</v>
+        <v>1.004212741999902</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.3934402028767924</v>
+        <v>-0.388996852860773</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.14348214545245</v>
+        <v>2.869575396209501</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.20494473504715</v>
+        <v>2.095957050332021</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.07231615043121</v>
+        <v>1.084488070113204</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.562105931318237</v>
+        <v>1.688861918338954</v>
       </c>
     </row>
     <row r="49">
@@ -2027,7 +2029,7 @@
         <v>2.651714713186615</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>1.692077421930371</v>
+        <v>1.692077421930372</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.6241649945680748</v>
@@ -2045,7 +2047,7 @@
         <v>0.2301348189852554</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.6285764713145452</v>
+        <v>0.6285764713145449</v>
       </c>
     </row>
     <row r="50">
@@ -2056,23 +2058,23 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.003732206104434942</v>
+        <v>0.06654577034669379</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-1</v>
+        <v>-0.6558035924189485</v>
       </c>
       <c r="E50" s="6" t="inlineStr"/>
       <c r="F50" s="6" t="inlineStr"/>
       <c r="G50" s="6" t="inlineStr"/>
       <c r="H50" s="6" t="inlineStr"/>
       <c r="I50" s="6" t="n">
-        <v>-0.3419693378791998</v>
+        <v>-0.3640280995503088</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.8128219033912394</v>
+        <v>-0.7993825469252487</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.7003525160383732</v>
+        <v>-0.7836011750079345</v>
       </c>
     </row>
     <row r="51">
@@ -2089,13 +2091,13 @@
       <c r="G51" s="6" t="inlineStr"/>
       <c r="H51" s="6" t="inlineStr"/>
       <c r="I51" s="6" t="n">
-        <v>7.662569048021322</v>
+        <v>8.316940839799772</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>4.785682330087247</v>
+        <v>4.504359082600251</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>4.835857725594494</v>
+        <v>6.469485876992572</v>
       </c>
     </row>
     <row r="52">
@@ -2134,7 +2136,7 @@
         <v>0.8260987666669342</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>1.182162679671028</v>
+        <v>1.182162679671029</v>
       </c>
     </row>
     <row r="53">
@@ -2145,31 +2147,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.189181894097727</v>
+        <v>1.220934231332954</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.5668922452048821</v>
+        <v>0.5060386906546149</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.4910711399143008</v>
+        <v>0.5547993097546641</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-1.244898551999104</v>
+        <v>-1.22567460808155</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.9847991260586889</v>
+        <v>-0.9833612907376638</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.2389002988508663</v>
+        <v>-0.2022082386149481</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.5655117285746131</v>
+        <v>0.6328687920935814</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.2647045692407229</v>
+        <v>0.2365085503737366</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>0.529218930552702</v>
+        <v>0.48800628409644</v>
       </c>
     </row>
     <row r="54">
@@ -2180,31 +2182,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.897125848704773</v>
+        <v>2.965394803575033</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>2.119584740868879</v>
+        <v>2.152858144484673</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2.238607454732324</v>
+        <v>2.390667335284377</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.4117055861207077</v>
+        <v>0.53414699963245</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.7998292157664973</v>
+        <v>0.8414963233812356</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.20289270494156</v>
+        <v>2.237679962852395</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.87647939821152</v>
+        <v>1.898264123681189</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.379749406723124</v>
+        <v>1.448425062789359</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>2.021033076719496</v>
+        <v>1.92011843616403</v>
       </c>
     </row>
     <row r="55">
@@ -2250,31 +2252,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.9584943831502485</v>
+        <v>0.9696986139763633</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.4447614802367515</v>
+        <v>0.3470715669636288</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.4036575464483247</v>
+        <v>0.4065799591141812</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.7959958907380382</v>
+        <v>-0.7509465891655132</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.6114265819625775</v>
+        <v>-0.6185293275986808</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.2361992111076425</v>
+        <v>-0.2407464035197683</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4383415230862745</v>
+        <v>0.4801074021631918</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.176188904662528</v>
+        <v>0.1720126954318362</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.3266151188460676</v>
+        <v>0.3878068995619885</v>
       </c>
     </row>
     <row r="57">
@@ -2285,31 +2287,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>5.772688768756611</v>
+        <v>5.294593494380378</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>3.968380612999252</v>
+        <v>3.640425885062984</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>4.384637634321572</v>
+        <v>4.26419316771578</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.7785933244048925</v>
+        <v>1.560742880925895</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>1.370395414600334</v>
+        <v>1.518934407711969</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>3.462199100541165</v>
+        <v>3.628388681171029</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>2.801442246387229</v>
+        <v>2.962473725712704</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>2.149318228554129</v>
+        <v>2.21329363760147</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>2.823795837033994</v>
+        <v>3.044715455876448</v>
       </c>
     </row>
     <row r="58">
